--- a/biology/Botanique/Fucaceae/Fucaceae.xlsx
+++ b/biology/Botanique/Fucaceae/Fucaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fucaceae sont une famille d’algues brunes de l’ordre des Fucales. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Fucus dérivé du grec φυχοσ / fychos, «  naître, croître », et du latin fucus, « plante marine donnant une teinture rouge ».
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBASE consulté le 21 juin 2021[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBASE consulté le 21 juin 2021 :
 Ascophylla, Stackh.
 Ascophyllum, Stackh.
 Fucodium, J.Agardh
@@ -558,13 +574,13 @@
 Pelvetiopsis, N.L.Gardner
 Physocaulon, Kütz.
 Silvetia, E.Serrão, T.O.Cho, S.M.Boo &amp; S.H.Brawley
-Selon ITIS      (23 août 2017)[3] :
+Selon ITIS      (23 août 2017) :
 Ascophyllum
 Fucus
 Hesperophycus
 Pelvetia
 Pelvetiopsis
-Selon World Register of Marine Species                               (23 août 2017)[4] :
+Selon World Register of Marine Species                               (23 août 2017) :
 Ascophyllum Stackhouse, 1809
 Fucus Linnaeus, 1753
 Hesperophycus Setchell &amp; Gardner, 1910
